--- a/CMPSC 465 Algorithms/Homework/Hw4/excell.xlsx
+++ b/CMPSC 465 Algorithms/Homework/Hw4/excell.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7310" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="a1" sheetId="1" r:id="rId1"/>
     <sheet name="a2" sheetId="2" r:id="rId2"/>
     <sheet name="Explaination for algo" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>x</t>
   </si>
@@ -108,14 +110,58 @@
   </si>
   <si>
     <t>new total</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>I = 1 , r = 1</t>
+  </si>
+  <si>
+    <t>I = 2 , r = 10</t>
+  </si>
+  <si>
+    <t>I = 3 , r = 1</t>
+  </si>
+  <si>
+    <t>I = 4 , r = 1</t>
+  </si>
+  <si>
+    <t>I = 5 , r = 1</t>
+  </si>
+  <si>
+    <t>I = 6, r = 1</t>
+  </si>
+  <si>
+    <t>I = 7 , r = 1</t>
+  </si>
+  <si>
+    <t>I = 8 , r = 5</t>
+  </si>
+  <si>
+    <t>I = 9 , r = 1</t>
+  </si>
+  <si>
+    <t>I = 10 , r =1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,11 +219,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +320,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,7 +635,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
@@ -491,7 +646,7 @@
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -532,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -559,7 +714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -586,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>22</v>
       </c>
@@ -613,7 +768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
@@ -627,7 +782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
@@ -654,7 +809,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
@@ -665,7 +820,7 @@
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:7">
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
@@ -673,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:7">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -691,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:7">
       <c r="C4" s="2">
         <v>7</v>
       </c>
@@ -709,7 +864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:7">
       <c r="C5" s="2">
         <v>12</v>
       </c>
@@ -727,7 +882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:7">
       <c r="C6" s="2">
         <v>13</v>
       </c>
@@ -742,7 +897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:7">
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -753,7 +908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:7">
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -776,17 +931,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7">
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
@@ -806,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -827,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -848,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -869,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -890,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -911,7 +1066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -939,13 +1094,132 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <f>5+B3</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D6" si="0">5+B4</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.90625" bestFit="1" customWidth="1"/>
@@ -955,7 +1229,7 @@
     <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -981,7 +1255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1008,7 +1282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1035,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1062,7 +1336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1089,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1113,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1121,17 +1395,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="D11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="D12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="D13">
         <v>2</v>
       </c>
@@ -1139,4 +1413,384 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C2:X23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:24">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>6</v>
+      </c>
+      <c r="P2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>8</v>
+      </c>
+      <c r="R2" s="2">
+        <v>9</v>
+      </c>
+      <c r="S2" s="2">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2">
+        <v>11</v>
+      </c>
+      <c r="U2" s="2">
+        <v>12</v>
+      </c>
+      <c r="V2" s="2">
+        <v>13</v>
+      </c>
+      <c r="W2" s="2">
+        <v>14</v>
+      </c>
+      <c r="X2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:24" ht="15" thickBot="1">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24" ht="15" thickBot="1">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <f>C4+5</f>
+        <v>6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="3:24" ht="15" thickBot="1">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E13" si="0">C5+5</f>
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" ht="15" thickBot="1">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="3:24" ht="15" thickBot="1">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" ht="15" thickBot="1">
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="3:24" ht="15" thickBot="1">
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" ht="15" thickBot="1">
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="3:24" ht="15" thickBot="1">
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" ht="15" thickBot="1">
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="3:24" ht="15" thickBot="1">
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" ht="15" thickBot="1">
+      <c r="O14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="3:24" ht="15" thickBot="1"/>
+    <row r="16" spans="3:24" ht="15" thickBot="1">
+      <c r="P16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="17:23" ht="15" thickBot="1"/>
+    <row r="18" spans="17:23" ht="15" thickBot="1">
+      <c r="Q18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11"/>
+    </row>
+    <row r="19" spans="17:23" ht="15" thickBot="1"/>
+    <row r="20" spans="17:23" ht="15" thickBot="1">
+      <c r="R20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="11"/>
+    </row>
+    <row r="21" spans="17:23" ht="15" thickBot="1"/>
+    <row r="22" spans="17:23" ht="15" thickBot="1">
+      <c r="S22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="17:23">
+      <c r="T23" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="O14:S14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>